--- a/xlsx/剑桥大学_intext.xlsx
+++ b/xlsx/剑桥大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
   <si>
     <t>剑桥大学</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8B%E7%AB%A0</t>
   </si>
   <si>
-    <t>紋章</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_剑桥大学</t>
+    <t>纹章</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E7%9B%A3</t>
   </si>
   <si>
-    <t>校監</t>
+    <t>校监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9E%C2%B7%E7%9B%9B%E4%BC%AF%E7%90%86%EF%BC%8C%E7%89%B9%E7%B6%AD%E7%88%BE%E7%9A%84%E7%9B%9B%E4%BC%AF%E7%90%86%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>大衞·盛伯理，特維爾的盛伯理男爵</t>
+    <t>大衞·盛伯理，特维尔的盛伯理男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%90%E8%AF%97%E5%85%8B%C2%B7%E4%BC%AF%E7%91%9E%E8%B0%A2%E7%BB%B4%E5%85%B9</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A0%E5%A4%A7%E5%AD%B8%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>羅素大學集團</t>
+    <t>罗素大学集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲大學協會</t>
+    <t>欧洲大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E9%9B%86%E5%9B%A2</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際研究型大學聯盟</t>
+    <t>国际研究型大学联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SES-5_(universities)</t>
@@ -179,31 +179,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%B3%E9%8A%9C</t>
   </si>
   <si>
-    <t>勳銜</t>
+    <t>勳衔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%99%A2%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>書院聯邦制</t>
+    <t>书院联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>英語世界</t>
+    <t>英语世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%8A%8D</t>
   </si>
   <si>
-    <t>牛劍</t>
+    <t>牛剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E4%B9%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
@@ -239,25 +239,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>劍橋大學出版社</t>
+    <t>剑桥大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E8%8C%B2%E7%8D%8E</t>
   </si>
   <si>
-    <t>菲爾茲獎</t>
+    <t>菲尔兹奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%81%B5%E5%A5%96</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E6%88%91%E7%95%A5%E4%B9%9D%E4%B8%96</t>
   </si>
   <si>
-    <t>額我略九世</t>
+    <t>额我略九世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%AF%8F%E4%B9%A6</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%96%AF%E7%89%B9%E6%8B%89%E7%89%B9%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E7%91%9E%E5%88%A9%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>約翰·斯特拉特，第三代瑞利男爵</t>
+    <t>约翰·斯特拉特，第三代瑞利男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%BC%97%E9%9B%B7%C2%B7%E5%93%88%E7%BD%97%E5%BE%B7%C2%B7%E5%93%88%E4%BB%A3</t>
@@ -461,9 +461,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%94%E5%85%B9%E5%A5%96</t>
   </si>
   <si>
-    <t>菲尔兹奖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B4%9D%E5%B0%94%E5%A5%96</t>
   </si>
   <si>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文物理學</t>
+    <t>天文物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%AD%B8</t>
   </si>
   <si>
-    <t>基因學</t>
+    <t>基因学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%A6</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%B2%A1%E7%B6%AD%E7%88%BE%E8%88%87%E5%87%B1%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>劍橋大學岡維爾與凱斯學院</t>
+    <t>剑桥大学冈维尔与凯斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E8%80%83%E8%AF%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -641,15 +638,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>剑桥大学出版社</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%BF</t>
   </si>
   <si>
-    <t>校长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E8%AF%84%E8%AE%AE%E4%BC%9A</t>
   </si>
   <si>
@@ -701,9 +692,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>牛津大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
   </si>
   <si>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E8%88%87%E7%BE%8E%E7%90%B3%E9%81%94%C2%B7%E8%93%8B%E8%8C%A8%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>比爾與美琳達·蓋茨基金會</t>
+    <t>比尔与美琳达·盖茨基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%8D%81%E5%B9%B4%E4%BB%A3</t>
@@ -785,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -803,25 +791,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E6%97%A5%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>星期日泰晤士報</t>
+    <t>星期日泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A3%B0%E8%AA%89%E6%8E%92%E5%90%8D</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A0%94%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>科研評估</t>
+    <t>科研评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E8%89%87</t>
@@ -875,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%88%97%E4%BD%9B%E9%81%8A%E8%A8%98</t>
   </si>
   <si>
-    <t>格列佛遊記</t>
+    <t>格列佛游记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E9%95%BF%E6%95%99%E8%82%B2</t>
@@ -905,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E9%87%8C%E6%A0%BC%E6%96%AF%C2%B7%E6%B9%AF%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>約翰·格里格斯·湯普森</t>
+    <t>约翰·格里格斯·汤普森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Independent</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>泰晤士報</t>
+    <t>泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6%E5%9F%BA%E7%9D%A3%E5%AD%A6%E9%99%A2</t>
@@ -1043,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%90%89%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>賈吉商學院</t>
+    <t>贾吉商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%A6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%80%83%E7%89%B9%E6%A5%B5%E5%9C%B0%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>史考特極地研究中心</t>
+    <t>史考特极地研究中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cambridge_University_Students%27_Union</t>
@@ -1115,15 +1103,12 @@
     <t>https://zh.wikipedia.org/wiki/BPP%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>BPP大學</t>
+    <t>BPP大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8B%B1%E5%90%89%E5%88%A9%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -1133,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%87%8C%E5%A5%87%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾里奇藝術大學</t>
+    <t>诺里奇艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -1151,31 +1136,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%BC%94%E8%AC%9B%E5%92%8C%E6%88%B2%E5%8A%87%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中央演講和戲劇學院</t>
+    <t>中央演讲和戏剧学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%B6%E5%BE%B7%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科陶德藝術學院</t>
+    <t>科陶德艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E9%87%91%E5%8C%A0%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學金匠學院</t>
+    <t>伦敦大学金匠学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%BC%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱弗學院</t>
+    <t>凯弗学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%99%A5%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>癌癥研究院</t>
+    <t>癌症研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%9B%BD%E7%8E%8B%E5%AD%A6%E9%99%A2</t>
@@ -1193,13 +1178,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦政治經濟學院</t>
+    <t>伦敦政治经济学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E8%A1%9B%E7%94%9F%E8%88%87%E7%86%B1%E5%B8%B6%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦衛生與熱帶醫學院</t>
+    <t>伦敦卫生与热带医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E7%8E%8B%E5%90%8E%E5%AD%A6%E9%99%A2</t>
@@ -1211,31 +1196,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>英國皇家音樂學院</t>
+    <t>英国皇家音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%B3%80%E6%B4%9B%E5%94%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>皇家賀洛唯學院</t>
+    <t>皇家贺洛唯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%8D%B8%E9%86%AB%E5%AD%B8%E9%99%A2_(%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8)</t>
   </si>
   <si>
-    <t>皇家獸醫學院 (倫敦大學)</t>
+    <t>皇家兽医学院 (伦敦大学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E8%81%96%E5%96%AC%E6%B2%BB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學聖喬治學院</t>
+    <t>伦敦大学圣乔治学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E4%BA%9E%E9%9D%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學亞非學院</t>
+    <t>伦敦大学亚非学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -1247,31 +1232,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E5%9F%8E%E5%B8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學城市學院</t>
+    <t>伦敦大学城市学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%A7%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布魯內爾大學</t>
+    <t>布鲁内尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東倫敦大學</t>
+    <t>东伦敦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%A8%81%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格林威治大學</t>
+    <t>格林威治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>金士頓大學</t>
+    <t>金士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%B8%9D%E5%9B%BD%E5%AD%A6%E9%99%A2</t>
@@ -1283,19 +1268,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦都會大學</t>
+    <t>伦敦都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%8D%97%E5%B2%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦南岸大學</t>
+    <t>伦敦南岸大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BE%B7%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密德薩斯大學</t>
+    <t>密德萨斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2</t>
@@ -1313,19 +1298,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%BC%A2%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅漢普頓大學</t>
+    <t>罗汉普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦藝術大學</t>
+    <t>伦敦艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E6%95%8F%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威斯敏斯特大學</t>
+    <t>威斯敏斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -1337,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿斯頓大學</t>
+    <t>阿斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -1349,13 +1334,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯明翰城市大學</t>
+    <t>伯明翰城市大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%AF%E6%B3%B0%E7%89%B9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格羅斯泰特主教大學</t>
+    <t>格罗斯泰特主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%96%87%E5%9E%82%E5%A4%A7%E5%AD%A6</t>
@@ -1367,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%92%99%E7%A6%8F%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德蒙福特大學</t>
+    <t>德蒙福特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -1379,19 +1364,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%8F%80%E4%BA%9E%E7%95%B6%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈珀亞當斯大學</t>
+    <t>哈珀亚当斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E5%A4%A7%E5%AD%B8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>基爾大學 (英國)</t>
+    <t>基尔大学 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯特大學</t>
+    <t>莱斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1403,13 +1388,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅浮堡大學</t>
+    <t>罗浮堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%9B%BC%E5%A4%A7%E5%AD%B8_(%E4%BC%AF%E6%98%8E%E7%BF%B0)</t>
   </si>
   <si>
-    <t>紐曼大學 (伯明翰)</t>
+    <t>纽曼大学 (伯明翰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%89%E6%99%AE%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
@@ -1421,19 +1406,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%B1%80%E7%BD%95%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾汀罕大學</t>
+    <t>诺汀罕大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%B8%81%E6%BC%A2%E7%89%B9%E5%80%AB%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾丁漢特倫特大學</t>
+    <t>诺丁汉特伦特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹福郡大學</t>
+    <t>史丹福郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%A8%81%E5%A4%A7%E5%AD%A6</t>
@@ -1445,19 +1430,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E7%88%BE%E5%BC%97%E6%BC%A2%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍爾弗漢普頓大學</t>
+    <t>伍尔弗汉普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍斯特大學</t>
+    <t>伍斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%88%BE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>博爾頓大學</t>
+    <t>博尔顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E5%BE%B7%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -1469,19 +1454,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>桑德蘭大學</t>
+    <t>桑德兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>切斯特大學</t>
+    <t>切斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%B8%83%E9%87%8C%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>坎布里亞大學</t>
+    <t>坎布里亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E4%BC%A6%E5%A4%A7%E5%AD%A6</t>
@@ -1493,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邊山大學</t>
+    <t>边山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -1505,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>赫爾大學</t>
+    <t>赫尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%8D%A1%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1523,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E8%8C%B2%E8%B2%9D%E5%85%8B%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利茲貝克特大學</t>
+    <t>利兹贝克特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%B9%E4%B8%89%E4%B8%80%E5%A4%A7%E5%AD%A6</t>
@@ -1541,13 +1526,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6%E5%B8%8C%E6%9C%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利物浦希望大學</t>
+    <t>利物浦希望大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6%E7%B4%84%E7%BF%B0%E6%91%A9%E7%88%BE%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利物浦約翰摩爾斯大學</t>
+    <t>利物浦约翰摩尔斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BD%BB%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1559,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>曼徹斯特都會大學</t>
+    <t>曼彻斯特都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%A1%E6%96%AF%E5%B0%94%E5%A4%A7%E5%AD%A6_(%E8%8B%B1%E5%9B%BD)</t>
@@ -1577,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索爾福德大學</t>
+    <t>索尔福德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -1589,67 +1574,67 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8F%B2%E7%88%BE%E5%93%88%E5%80%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雪菲爾哈倫大學</t>
+    <t>雪菲尔哈伦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A1%91%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾桑比亞大學</t>
+    <t>诺桑比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B3%BD%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>提賽德大學</t>
+    <t>提赛德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E5%A4%A7%E5%AD%B8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>約克大學 (英國)</t>
+    <t>约克大学 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E8%81%96%E7%B4%84%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約克聖約翰大學</t>
+    <t>约克圣约翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%81%A9%E8%8C%85%E6%96%AF%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯恩茅斯藝術大學</t>
+    <t>伯恩茅斯艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴斯大學</t>
+    <t>巴斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E6%80%9D%E5%B7%B4%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴斯思巴大學</t>
+    <t>巴斯思巴大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%BE%B7%E7%A6%8F%E5%BE%B7%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝德福德郡大學</t>
+    <t>贝德福德郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%81%A9%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯恩茅斯大學</t>
+    <t>伯恩茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布萊頓大學</t>
+    <t>布莱顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -1667,31 +1652,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%87%91%E6%BC%A2%E9%83%A1%E6%96%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>白金漢郡新大學</t>
+    <t>白金汉郡新大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7%E5%9F%BA%E7%9D%A3%E6%95%99%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>坎特伯雷基督教會大學</t>
+    <t>坎特伯雷基督教会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%88%87%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奇切斯特大學</t>
+    <t>奇切斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%98%AD%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克蘭菲爾德大學</t>
+    <t>克兰菲尔德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>創作藝術大學</t>
+    <t>创作艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1703,19 +1688,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B8%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>艾希特大學</t>
+    <t>艾希特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%88%BE%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>法爾茅斯大學</t>
+    <t>法尔茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%AF%E7%89%B9%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格羅斯特郡大學</t>
+    <t>格罗斯特郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%89%B9%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -1733,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%B8%83%E9%AD%AF%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津布魯克斯大學</t>
+    <t>牛津布鲁克斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1745,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E8%8C%A8%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>樸茨茅斯大學</t>
+    <t>朴茨茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81%E5%A4%A7%E5%AD%A6</t>
@@ -1757,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E5%92%8C%E8%81%96%E7%B4%84%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖馬可和聖約翰大學</t>
+    <t>圣马可和圣约翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -1769,13 +1754,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E9%A0%93%E7%B4%A2%E5%80%AB%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南安普頓索倫特大學</t>
+    <t>南安普顿索伦特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>薩里大學</t>
+    <t>萨里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%A1%9E%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1787,13 +1772,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西英格蘭大學</t>
+    <t>西英格兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>溫徹斯特大學</t>
+    <t>温彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -1805,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿爾斯特大學</t>
+    <t>阿尔斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E4%B8%81%E5%A4%A7%E5%AD%A6</t>
@@ -1817,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%B3%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞伯泰大學</t>
+    <t>亚伯泰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E8%BF%AA%E5%A4%A7%E5%AD%A6</t>
@@ -1835,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E7%B4%8D%E7%9A%AE%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡納皮爾大學</t>
+    <t>爱丁堡纳皮尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -1847,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%8D%A1%E5%88%A9%E5%A4%9A%E5%B0%BC%E5%AE%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格拉斯哥卡利多尼安大學</t>
+    <t>格拉斯哥卡利多尼安大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%91%9E%E7%93%A6%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1859,13 +1844,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E8%88%87%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>高地與群島大學</t>
+    <t>高地与群岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%E7%9A%87%E5%90%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>瑪格麗特皇后大學</t>
+    <t>玛格丽特皇后大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%E6%88%88%E7%99%BB%E5%A4%A7%E5%AD%A6</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>蘇格蘭皇家音樂學院</t>
+    <t>苏格兰皇家音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E5%BE%B7%E9%B2%81%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1895,13 +1880,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E6%96%AF%E5%85%8B%E8%90%8A%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯特拉斯克萊德大學</t>
+    <t>斯特拉斯克莱德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%98%87%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西蘇格蘭大學</t>
+    <t>西苏格兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -1913,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E9%87%8C%E6%96%AF%E7%89%B9%E5%A8%81%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿伯里斯特威斯大學</t>
+    <t>阿伯里斯特威斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%88%88%E5%A4%A7%E5%AD%A6</t>
@@ -1931,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E5%A4%AB%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡迪夫都會大學</t>
+    <t>卡迪夫都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%E6%B1%89%E5%A7%86%E6%A0%BC%E6%9E%97%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
@@ -1949,37 +1934,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB%E4%B8%89%E4%B8%80%E8%81%96%E5%A4%A7%E8%A1%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威爾士三一聖大衛大學</t>
+    <t>威尔士三一圣大卫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西印度群島大學</t>
+    <t>西印度群岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%A4%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖馬太大學</t>
+    <t>圣马太大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>開曼群島大學學院</t>
+    <t>开曼群岛大学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A9%B9%E5%A7%86%E6%96%AF%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖詹姆斯醫學院</t>
+    <t>圣詹姆斯医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>直布羅陀大學</t>
+    <t>直布罗陀大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%85%AC%E5%BC%80%E5%A4%A7%E5%AD%A6</t>
@@ -1991,15 +1976,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國大學列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5</t>
   </si>
   <si>
-    <t>剑桥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
   </si>
   <si>
@@ -2009,45 +1988,27 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>伦敦政治经济学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%B4%A0%E5%A4%A7%E5%AD%A6%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>罗素大学集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%9D%E5%9C%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦帝國學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布里斯托大學</t>
+    <t>布里斯托大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格拉斯哥大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦國王學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E7%8E%9B%E4%B8%BD%E7%8E%8B%E5%90%8E%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2057,9 +2018,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%80%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜倫大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%A1%E6%96%AF%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2075,19 +2033,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南安普頓大學</t>
+    <t>南安普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%A8%81%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華威大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%B4%84%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>英國約克大學</t>
+    <t>英国约克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9%E5%A4%A7%E5%AD%A6</t>
@@ -2129,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊頓大學</t>
+    <t>莱顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%AF%AD%E5%A4%A9%E4%B8%BB%E6%95%99%E9%B2%81%E6%B1%B6%E5%A4%A7%E5%AD%A6</t>
@@ -2189,13 +2144,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>科英布拉集團</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%BC%97%E6%9C%97%E5%B2%91%E6%96%AF%E6%A0%BC%E6%8B%89%E8%8C%A8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡爾·弗朗岑斯格拉茨大學</t>
+    <t>卡尔·弗朗岑斯格拉茨大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%A4%A9%E4%B8%BB%E6%95%99%E9%B2%81%E6%B1%B6%E5%A4%A7%E5%AD%A6</t>
@@ -2243,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BD%BC%E5%88%A9%E5%9F%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙彼利埃大學</t>
+    <t>蒙彼利埃大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%93%A6%E6%8D%B7%E5%A4%A7%E5%AD%A6</t>
@@ -2291,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>都柏林大學</t>
+    <t>都柏林大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%B4%9B%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2303,7 +2255,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%A4%9A%E7%93%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>帕多瓦大學</t>
+    <t>帕多瓦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BB%B4%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2315,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%80%B6%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>錫耶納大學</t>
+    <t>锡耶纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%AE%81%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -2333,13 +2285,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%93%8B%E9%9A%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雅蓋隆大學</t>
+    <t>雅盖隆大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科英布拉大學</t>
+    <t>科英布拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%97%E5%A0%A1%E5%9B%BD%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2375,25 +2327,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%99%AE%E8%96%A9%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>烏普薩拉大學</t>
+    <t>乌普萨拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%A6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>国际研究型大学联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澳大利亞國立大學</t>
+    <t>澳大利亚国立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -4940,7 +4889,7 @@
         <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4966,10 +4915,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4995,10 +4944,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5024,10 +4973,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5053,10 +5002,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5082,10 +5031,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5111,10 +5060,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5140,10 +5089,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5198,10 +5147,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5227,10 +5176,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5256,10 +5205,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5285,10 +5234,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>8</v>
@@ -5314,10 +5263,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -5343,10 +5292,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5372,10 +5321,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5401,10 +5350,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5430,10 +5379,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5459,10 +5408,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5488,10 +5437,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5517,10 +5466,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5546,10 +5495,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -5575,10 +5524,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5604,10 +5553,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5633,10 +5582,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5662,10 +5611,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5691,10 +5640,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5720,10 +5669,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5749,10 +5698,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5778,10 +5727,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5836,10 +5785,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5865,10 +5814,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5894,10 +5843,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5952,10 +5901,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5981,10 +5930,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6010,10 +5959,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6039,10 +5988,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6068,10 +6017,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6097,10 +6046,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6126,10 +6075,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6155,10 +6104,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6184,10 +6133,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="G118" t="n">
         <v>9</v>
@@ -6213,10 +6162,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6242,10 +6191,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6271,10 +6220,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6300,10 +6249,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6329,10 +6278,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6358,10 +6307,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -6387,10 +6336,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6416,10 +6365,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6445,10 +6394,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6474,10 +6423,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6503,10 +6452,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6532,10 +6481,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6561,10 +6510,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6590,10 +6539,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6619,13 +6568,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6648,13 +6597,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6677,10 +6626,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6706,13 +6655,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6735,13 +6684,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6764,13 +6713,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6793,10 +6742,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6822,10 +6771,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6851,10 +6800,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6880,10 +6829,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6909,10 +6858,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F143" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6938,10 +6887,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6967,10 +6916,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6996,10 +6945,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7025,10 +6974,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7054,10 +7003,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7083,10 +7032,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7112,10 +7061,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7141,10 +7090,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7170,10 +7119,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7199,10 +7148,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7228,10 +7177,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7257,10 +7206,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7286,10 +7235,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7315,10 +7264,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7344,10 +7293,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7373,10 +7322,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7402,10 +7351,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7431,10 +7380,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F161" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7460,10 +7409,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F162" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G162" t="n">
         <v>6</v>
@@ -7489,10 +7438,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7524,7 +7473,7 @@
         <v>68</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7547,10 +7496,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7576,10 +7525,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" t="s">
         <v>163</v>
-      </c>
-      <c r="F166" t="s">
-        <v>164</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7634,10 +7583,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7663,10 +7612,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F169" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7692,10 +7641,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>160</v>
+      </c>
+      <c r="F170" t="s">
         <v>161</v>
-      </c>
-      <c r="F170" t="s">
-        <v>162</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7779,10 +7728,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F173" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7808,10 +7757,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" t="s">
         <v>151</v>
-      </c>
-      <c r="F174" t="s">
-        <v>152</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7837,10 +7786,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>202</v>
+      </c>
+      <c r="F175" t="s">
         <v>203</v>
-      </c>
-      <c r="F175" t="s">
-        <v>204</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7895,10 +7844,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7924,10 +7873,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F178" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7953,10 +7902,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F179" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7982,10 +7931,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>158</v>
+      </c>
+      <c r="F180" t="s">
         <v>159</v>
-      </c>
-      <c r="F180" t="s">
-        <v>160</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8011,10 +7960,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F181" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8040,10 +7989,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>156</v>
+      </c>
+      <c r="F182" t="s">
         <v>157</v>
-      </c>
-      <c r="F182" t="s">
-        <v>158</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8069,10 +8018,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>152</v>
+      </c>
+      <c r="F183" t="s">
         <v>153</v>
-      </c>
-      <c r="F183" t="s">
-        <v>154</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8098,10 +8047,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F184" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8156,10 +8105,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F186" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8185,10 +8134,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F187" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8214,10 +8163,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F188" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8243,10 +8192,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F189" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8272,10 +8221,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F190" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8301,10 +8250,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F191" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8359,10 +8308,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>170</v>
+      </c>
+      <c r="F193" t="s">
         <v>171</v>
-      </c>
-      <c r="F193" t="s">
-        <v>172</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8388,10 +8337,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F194" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8417,10 +8366,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F195" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8446,10 +8395,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F196" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8504,10 +8453,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F198" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8533,10 +8482,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F199" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8562,10 +8511,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F200" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -8591,10 +8540,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F201" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8620,10 +8569,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F202" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8649,10 +8598,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F203" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8678,10 +8627,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F204" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8707,10 +8656,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F205" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G205" t="n">
         <v>15</v>
@@ -8736,10 +8685,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F206" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8765,10 +8714,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F207" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8794,10 +8743,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F208" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8823,10 +8772,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F209" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8852,10 +8801,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F210" t="s">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>22</v>
@@ -8881,10 +8830,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F211" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8910,10 +8859,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F212" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8939,13 +8888,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F213" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8968,10 +8917,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F214" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8997,10 +8946,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F215" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9026,10 +8975,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F216" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9055,10 +9004,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F217" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9084,10 +9033,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F218" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9113,10 +9062,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F219" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9142,10 +9091,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F220" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G220" t="n">
         <v>6</v>
@@ -9171,10 +9120,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F221" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9200,10 +9149,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9229,10 +9178,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F223" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9258,10 +9207,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F224" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9287,10 +9236,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F225" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9316,10 +9265,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F226" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9345,10 +9294,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F227" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9374,10 +9323,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F228" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9403,10 +9352,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F229" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9432,10 +9381,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F230" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9461,10 +9410,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F231" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9490,10 +9439,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F232" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9519,10 +9468,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F233" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9548,10 +9497,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F234" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9577,10 +9526,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F235" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9606,10 +9555,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F236" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -9635,10 +9584,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F237" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9664,10 +9613,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F238" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9693,10 +9642,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F239" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9722,10 +9671,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F240" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9751,10 +9700,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F241" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9780,10 +9729,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F242" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9809,10 +9758,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F243" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9838,10 +9787,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F244" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9867,10 +9816,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F245" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9896,10 +9845,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F246" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9925,10 +9874,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F247" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -9954,10 +9903,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F248" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9983,10 +9932,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F249" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10012,10 +9961,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F250" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10041,10 +9990,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F251" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10070,10 +10019,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F252" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10099,10 +10048,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F253" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10128,10 +10077,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F254" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10157,10 +10106,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F255" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10186,10 +10135,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F256" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10215,10 +10164,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F257" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10244,10 +10193,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F258" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10273,10 +10222,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F259" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10302,10 +10251,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F260" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10331,10 +10280,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F261" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10360,10 +10309,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F262" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10389,10 +10338,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F263" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10418,10 +10367,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F264" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10447,10 +10396,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F265" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10476,10 +10425,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F266" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10505,10 +10454,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F267" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10534,10 +10483,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F268" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10563,10 +10512,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F269" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10592,10 +10541,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F270" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10621,10 +10570,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F271" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10650,10 +10599,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F272" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10679,10 +10628,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F273" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10708,10 +10657,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F274" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10737,10 +10686,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F275" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10766,10 +10715,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F276" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10795,10 +10744,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F277" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10824,10 +10773,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F278" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10853,10 +10802,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F279" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -10882,10 +10831,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F280" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10911,10 +10860,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F281" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10940,10 +10889,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F282" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -10969,10 +10918,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F283" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10998,10 +10947,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F284" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11027,10 +10976,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F285" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11056,10 +11005,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F286" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11085,10 +11034,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F287" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11114,10 +11063,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F288" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11143,10 +11092,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F289" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11172,10 +11121,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F290" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11201,10 +11150,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F291" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11230,10 +11179,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F292" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11259,10 +11208,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F293" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11288,10 +11237,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F294" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11317,10 +11266,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F295" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11346,10 +11295,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F296" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11375,10 +11324,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F297" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11404,10 +11353,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F298" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11433,10 +11382,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F299" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11462,10 +11411,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F300" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11491,10 +11440,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11520,10 +11469,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11549,10 +11498,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F303" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11578,10 +11527,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F304" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11607,10 +11556,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F305" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11636,10 +11585,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F306" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11665,10 +11614,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11694,10 +11643,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11723,10 +11672,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11752,10 +11701,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11781,10 +11730,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11810,10 +11759,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11839,10 +11788,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11868,10 +11817,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11897,10 +11846,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11926,10 +11875,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11955,10 +11904,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11984,10 +11933,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12013,10 +11962,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12042,10 +11991,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -12071,10 +12020,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12100,10 +12049,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12129,10 +12078,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12158,10 +12107,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12187,10 +12136,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F325" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12216,10 +12165,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F326" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12245,10 +12194,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12274,10 +12223,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12303,10 +12252,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12332,10 +12281,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12361,10 +12310,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12390,10 +12339,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12419,10 +12368,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12448,10 +12397,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F334" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12477,10 +12426,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F335" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12506,10 +12455,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F336" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12535,10 +12484,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F337" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12564,10 +12513,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F338" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12593,10 +12542,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F339" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12622,10 +12571,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F340" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12651,10 +12600,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F341" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12680,10 +12629,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F342" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12709,10 +12658,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F343" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12738,10 +12687,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F344" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12767,10 +12716,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F345" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12796,10 +12745,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F346" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12825,10 +12774,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F347" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12854,10 +12803,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F348" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12883,10 +12832,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F349" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12912,10 +12861,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F350" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12941,10 +12890,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F351" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12970,10 +12919,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F352" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12999,10 +12948,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F353" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13028,10 +12977,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F354" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13057,10 +13006,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F355" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13086,10 +13035,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F356" t="s">
-        <v>658</v>
+        <v>358</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13115,10 +13064,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F357" t="s">
-        <v>660</v>
+        <v>36</v>
       </c>
       <c r="G357" t="n">
         <v>85</v>
@@ -13144,10 +13093,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F358" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G358" t="n">
         <v>14</v>
@@ -13173,10 +13122,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F359" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -13202,10 +13151,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F360" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13231,10 +13180,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F361" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13260,10 +13209,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F362" t="s">
-        <v>664</v>
+        <v>387</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13289,10 +13238,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F363" t="s">
-        <v>666</v>
+        <v>40</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13347,10 +13296,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F365" t="s">
-        <v>668</v>
+        <v>415</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13376,10 +13325,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F366" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13434,10 +13383,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F368" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13463,10 +13412,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F369" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13492,10 +13441,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F370" t="s">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="G370" t="n">
         <v>14</v>
@@ -13521,10 +13470,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F371" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13550,10 +13499,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F372" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13579,10 +13528,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F373" t="s">
-        <v>674</v>
+        <v>603</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13608,10 +13557,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F374" t="s">
-        <v>676</v>
+        <v>383</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13637,10 +13586,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F375" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13666,10 +13615,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F376" t="s">
-        <v>680</v>
+        <v>485</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13695,10 +13644,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F377" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13724,10 +13673,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F378" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13753,10 +13702,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F379" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13782,10 +13731,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F380" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13811,10 +13760,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="F381" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13840,10 +13789,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F382" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13869,10 +13818,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F383" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13898,10 +13847,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F384" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13927,10 +13876,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F385" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13956,10 +13905,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F386" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13985,10 +13934,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F387" t="s">
-        <v>688</v>
+        <v>469</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14014,10 +13963,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="F388" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14043,10 +13992,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F389" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14101,10 +14050,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F391" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14130,10 +14079,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F392" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14159,10 +14108,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F393" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14188,10 +14137,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F394" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14217,10 +14166,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F395" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14246,10 +14195,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F396" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14275,10 +14224,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F397" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14304,10 +14253,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F398" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14333,10 +14282,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F399" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14362,10 +14311,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F400" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14391,10 +14340,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F401" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14420,10 +14369,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F402" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14449,10 +14398,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F403" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14478,10 +14427,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F404" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14507,10 +14456,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F405" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14536,10 +14485,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="F406" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14565,10 +14514,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="F407" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14594,10 +14543,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F408" t="s">
-        <v>724</v>
+        <v>44</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14623,10 +14572,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F409" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14652,10 +14601,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F410" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14681,10 +14630,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F411" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14710,10 +14659,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F412" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14739,10 +14688,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F413" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14768,10 +14717,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F414" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14797,10 +14746,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F415" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14826,10 +14775,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F416" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14855,10 +14804,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F417" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14884,10 +14833,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F418" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14913,10 +14862,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F419" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14942,10 +14891,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F420" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14971,10 +14920,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F421" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15000,10 +14949,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F422" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15029,10 +14978,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F423" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15058,10 +15007,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F424" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15087,10 +15036,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F425" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15116,10 +15065,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F426" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15145,10 +15094,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F427" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15174,10 +15123,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F428" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15203,10 +15152,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F429" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15232,10 +15181,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F430" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15261,10 +15210,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F431" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15290,10 +15239,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F432" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15319,10 +15268,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F433" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15348,10 +15297,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F434" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15377,10 +15326,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F435" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15406,10 +15355,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F436" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15435,10 +15384,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F437" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15464,10 +15413,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F438" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15493,10 +15442,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F439" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15522,10 +15471,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F440" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15551,10 +15500,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F441" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15580,10 +15529,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F442" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15609,10 +15558,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F443" t="s">
-        <v>788</v>
+        <v>50</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15638,10 +15587,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F444" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15667,10 +15616,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F445" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15696,10 +15645,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F446" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15725,10 +15674,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F447" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15754,10 +15703,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F448" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15783,10 +15732,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F449" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15812,10 +15761,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="F450" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>

--- a/xlsx/剑桥大学_intext.xlsx
+++ b/xlsx/剑桥大学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>紋章</t>
   </si>
   <si>
-    <t>政策_政策_美國_剑桥大学</t>
+    <t>体育运动_体育运动_大众媒体_剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
